--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Vidal\Desktop\P1_Cdados_Pedro_Felipe\23-1a-cd-p1-pedro_felipe\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{02DED1FA-213B-469B-AD49-550062FD9816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3E2F46C5-A149-43E5-9E07-7AAF1A3B7778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -4140,18 +4140,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4193,7 +4187,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4534,8 +4528,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="C477" workbookViewId="0">
+      <selection activeCell="G483" sqref="G483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6214,7 +6208,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>163</v>
       </c>
@@ -11746,31 +11740,31 @@
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C481">
+    <row r="481" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F481" s="5">
+        <v>0</v>
+      </c>
+      <c r="G481">
         <f>COUNTIF(C2:C480, 0)</f>
         <v>41</v>
       </c>
-      <c r="D481" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C482">
+    </row>
+    <row r="482" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F482" s="5">
+        <v>1</v>
+      </c>
+      <c r="G482">
         <f>COUNTIF(C2:C480, 1)</f>
         <v>201</v>
       </c>
-      <c r="D482" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C483" s="4">
+    </row>
+    <row r="483" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F483" s="5">
+        <v>2</v>
+      </c>
+      <c r="G483" s="4">
         <f>COUNTIF(C2:C480, 2)</f>
         <v>235</v>
-      </c>
-      <c r="D483" s="5">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11782,8 +11776,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G325"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16600,7 +16594,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>25</v>
       </c>
@@ -16615,7 +16609,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>19</v>
       </c>
@@ -16630,31 +16624,34 @@
         <v>800</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C323">
+    <row r="323" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D323" s="5"/>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
         <f>COUNTIF(C2:C322, 0)</f>
         <v>23</v>
       </c>
-      <c r="D323" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C324">
+    </row>
+    <row r="324" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D324" s="5"/>
+      <c r="F324">
+        <v>1</v>
+      </c>
+      <c r="G324">
         <f>COUNTIF(C2:C322, 1)</f>
         <v>147</v>
       </c>
-      <c r="D324" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C325">
+    </row>
+    <row r="325" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D325" s="5"/>
+      <c r="F325">
+        <v>2</v>
+      </c>
+      <c r="G325">
         <f>COUNTIF(C2:C322, 2)</f>
         <v>151</v>
-      </c>
-      <c r="D325" s="5">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -16663,12 +16660,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16804,15 +16798,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{5E48FAD2-7430-4232-B1E3-3C9EE36F1904}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{37EAE929-B081-4C5C-875C-7ACC81C18878}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16836,10 +16834,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{37EAE929-B081-4C5C-875C-7ACC81C18878}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{5E48FAD2-7430-4232-B1E3-3C9EE36F1904}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Vidal\Desktop\P1_Cdados_Pedro_Felipe\23-1a-cd-p1-pedro_felipe\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{80DC4D9A-87E0-4FCD-8AEA-76F9FE4B8F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{24DC7718-8B90-412B-BBB4-59E995184CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1608" uniqueCount="968">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1604" uniqueCount="964">
   <si>
     <t>app_name</t>
   </si>
@@ -4102,18 +4102,6 @@
 Nota²: não jogue o jogo com pressa, assim não entenderá  a história e morrerá mais rápido.
 Finalização: bem, esse é um ótimo jogo, compre, mas entenda que ele tem momentos muito estressantes, quando esses momentos chegarem, salve o jogo, e vá fazer alguma outra coisa e tente relaxar, a raiva tira sua concentração e fará você ter mais raiva ainda.²
 Edit: sáb, 15 de fev. 3:31 AM, Finalmente passei da primeira batalha da Hornet.</t>
-  </si>
-  <si>
-    <t>170 - 1</t>
-  </si>
-  <si>
-    <t>151 - 2</t>
-  </si>
-  <si>
-    <t>242 - 1</t>
-  </si>
-  <si>
-    <t>235 - 2</t>
   </si>
 </sst>
 </file>
@@ -4521,10 +4509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E482"/>
+  <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="B484" sqref="B484"/>
+    <sheetView topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="D481" sqref="D481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9811,22 +9799,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D481">
-        <v>1</v>
-      </c>
-      <c r="E481" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="482" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D482">
-        <v>2</v>
-      </c>
-      <c r="E482" t="s">
-        <v>967</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9834,10 +9806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E324"/>
+  <dimension ref="A1:C322"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C324" sqref="C324"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13370,7 +13342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>20</v>
       </c>
@@ -13381,7 +13353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -13390,16 +13362,6 @@
       </c>
       <c r="C322">
         <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E323" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E324" t="s">
-        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -13408,9 +13370,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13546,19 +13511,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{37EAE929-B081-4C5C-875C-7ACC81C18878}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{5E48FAD2-7430-4232-B1E3-3C9EE36F1904}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13582,9 +13543,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{5E48FAD2-7430-4232-B1E3-3C9EE36F1904}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{37EAE929-B081-4C5C-875C-7ACC81C18878}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Vidal\Desktop\P1_Cdados_Pedro_Felipe\23-1a-cd-p1-pedro_felipe\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{24DC7718-8B90-412B-BBB4-59E995184CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E184C0DE-35EB-4C0F-A5A3-91DE14CA4B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -4511,18 +4511,13 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="D481" sqref="D481"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.109375" customWidth="1"/>
     <col min="2" max="2" width="99.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -9808,7 +9803,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+    <sheetView topLeftCell="A321" workbookViewId="0">
       <selection activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
@@ -13370,12 +13365,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13511,15 +13503,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{5E48FAD2-7430-4232-B1E3-3C9EE36F1904}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{37EAE929-B081-4C5C-875C-7ACC81C18878}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13543,10 +13539,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{37EAE929-B081-4C5C-875C-7ACC81C18878}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{5E48FAD2-7430-4232-B1E3-3C9EE36F1904}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>